--- a/API/ErrorDetails.xlsx
+++ b/API/ErrorDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ErrorID</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Inserted Successfully</t>
+  </si>
+  <si>
+    <t>Updated Successfully</t>
+  </si>
+  <si>
+    <t>Save Successfully</t>
+  </si>
+  <si>
+    <t>Invalid ID</t>
   </si>
 </sst>
 </file>
@@ -356,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,23 +391,47 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
